--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1009,7 +1009,9 @@
       <c r="C4" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5">
@@ -1022,7 +1024,9 @@
       <c r="C5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5">
@@ -1541,7 +1545,7 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Day</t>
   </si>
@@ -71,16 +71,29 @@
   <si>
     <t>Made a quick blockout using 3D models I made earlier along with some new ones to get a feel for what the arena would look like.</t>
   </si>
+  <si>
+    <t>20.08.2021</t>
+  </si>
+  <si>
+    <t>Discussed what we've done over the past couple of days and what we plan to implement before we show the prototype to the lecturers next week.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -235,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -293,17 +306,6 @@
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB7B7B7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -382,68 +384,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -452,83 +461,79 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -536,7 +541,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -693,14 +706,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Sheet1-style" pivot="0" count="4">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="Sheet1-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -721,13 +734,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E75" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E75" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
   <tableColumns count="5">
-    <tableColumn id="1" name="Day" dataDxfId="4"/>
-    <tableColumn id="2" name="Task name" dataDxfId="3"/>
-    <tableColumn id="3" name="What the task entails" dataDxfId="2"/>
-    <tableColumn id="4" name="1" dataDxfId="1"/>
-    <tableColumn id="5" name="Actual hours" dataDxfId="0"/>
+    <tableColumn id="1" name="Day" dataDxfId="5"/>
+    <tableColumn id="2" name="Task name" dataDxfId="4"/>
+    <tableColumn id="3" name="What the task entails" dataDxfId="3"/>
+    <tableColumn id="4" name="1" dataDxfId="2"/>
+    <tableColumn id="5" name="Actual hours" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -933,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -966,13 +979,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13">
@@ -983,13 +996,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="14">
@@ -1000,13 +1013,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="14">
@@ -1015,13 +1028,13 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="77" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="14">
@@ -1029,108 +1042,118 @@
       </c>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="15"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="14"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="20"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="27"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="27"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="24"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="30"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="30"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="31"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="14"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="G20" s="1"/>
@@ -1138,8 +1161,8 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="14"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="G21" s="1"/>
@@ -1147,395 +1170,395 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="14"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="31"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="38"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="38"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="38"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="38"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="38"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="42"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="42"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="42"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="42"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="42"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="42"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="52"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="54"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="52"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="54"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="52"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="54"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="52"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="54"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="52"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="54"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="52"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="54"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="52"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="58"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="52"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="58"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="52"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="58"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="52"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="58"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="56"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="58"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="56"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="19"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="58"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="63"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="19"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="58"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="64"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="64"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="64"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="64"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="64"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="64"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="65"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="65"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="65"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="65"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="65"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="65"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="65"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="65"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="65"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="65"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="65"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="65"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="65"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="65"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="65"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="68"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="71"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
@@ -1545,11 +1568,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>4.88</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
@@ -2507,8 +2530,8 @@
     <row r="1015" ht="15.75" customHeight="1"/>
     <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="H23:H27 C25:C28 C2:C18 B4:C4 B2:B28 B28:C75">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
+  <conditionalFormatting sqref="H23:H27 C25:C28 C2:C18 B4:C4 B28:C75 B2:B28">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
@@ -60,16 +60,7 @@
     <t>Team meeting</t>
   </si>
   <si>
-    <t>HUD blockout</t>
-  </si>
-  <si>
     <t>Tried 3D concepting by modelling a dais and some half wall variants. Decided to stick with 2D. Went for a gothic cathedral-esque look for the exterior. The interior is based off a design I found from Guild Wars 2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Put up placeholder sprites on a canvas obj in Unity so we could implement new UI assets faster. </t>
-  </si>
-  <si>
-    <t>Made a quick blockout using 3D models I made earlier along with some new ones to get a feel for what the arena would look like.</t>
   </si>
   <si>
     <t>20.08.2021</t>
@@ -77,16 +68,47 @@
   <si>
     <t>Discussed what we've done over the past couple of days and what we plan to implement before we show the prototype to the lecturers next week.</t>
   </si>
+  <si>
+    <t>22.08.2021</t>
+  </si>
+  <si>
+    <t>Moodboard collection</t>
+  </si>
+  <si>
+    <t>Candlestick</t>
+  </si>
+  <si>
+    <t>Gathered references of props needed along with exterior and interior references of Gothic architecture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelled a 2k poly candlestick to be used as a semi-placeholder for the arena. </t>
+  </si>
+  <si>
+    <t>Made a quick blockout using 3D models I made earlier along with probuilder ones.</t>
+  </si>
+  <si>
+    <t>Pew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelled a 400 poly pew to be used as a semi-placeholder for the arena. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -384,67 +406,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -453,95 +481,131 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -650,14 +714,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFDBE5F1"/>
           <bgColor rgb="FFDBE5F1"/>
         </patternFill>
@@ -706,14 +762,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Sheet1-style" pivot="0" count="4">
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="Sheet1-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -734,13 +790,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E75" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E75" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
   <tableColumns count="5">
-    <tableColumn id="1" name="Day" dataDxfId="5"/>
-    <tableColumn id="2" name="Task name" dataDxfId="4"/>
-    <tableColumn id="3" name="What the task entails" dataDxfId="3"/>
-    <tableColumn id="4" name="1" dataDxfId="2"/>
-    <tableColumn id="5" name="Actual hours" dataDxfId="1"/>
+    <tableColumn id="1" name="Day" dataDxfId="9"/>
+    <tableColumn id="2" name="Task name" dataDxfId="8"/>
+    <tableColumn id="3" name="What the task entails" dataDxfId="7"/>
+    <tableColumn id="4" name="1" dataDxfId="6"/>
+    <tableColumn id="5" name="Actual hours" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -946,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -979,13 +1035,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13">
@@ -996,14 +1052,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="77" t="s">
-        <v>14</v>
+      <c r="C3" s="75" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="14">
         <v>2</v>
@@ -1013,26 +1069,28 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="77" t="s">
-        <v>16</v>
+      <c r="C4" s="78" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>13</v>
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="77" t="s">
         <v>15</v>
@@ -1040,120 +1098,142 @@
       <c r="D5" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="78" t="s">
+      <c r="E5" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="79">
+        <v>1</v>
+      </c>
+      <c r="E6" s="79">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14">
+      <c r="C7" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="79">
         <v>1</v>
       </c>
-      <c r="E6" s="14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="79">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="79">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="14"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="19"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="26"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="26"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="26"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="29"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="29"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="14"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="G20" s="1"/>
@@ -1161,8 +1241,8 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="14"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="G21" s="1"/>
@@ -1170,395 +1250,395 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="14"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="29"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="34"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="37"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="37"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="37"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="37"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="41"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="41"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="41"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="41"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="42"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="41"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="41"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="41"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="48"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="51"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="53"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="51"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="53"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="51"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="53"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="51"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="53"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="51"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="53"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="51"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="53"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="51"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="57"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="51"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="57"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="51"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="57"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="51"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="57"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="57"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="55"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="18"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="57"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="62"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="18"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="57"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="63"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="63"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="63"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="63"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="63"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="63"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="64"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="64"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="64"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="64"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="64"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="64"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="64"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="64"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="64"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="64"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="64"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="64"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="64"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="64"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="67"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="70"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
@@ -1568,11 +1648,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>5.43</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
@@ -2530,9 +2610,19 @@
     <row r="1015" ht="15.75" customHeight="1"/>
     <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="H23:H27 C25:C28 C2:C18 B4:C4 B28:C75 B2:B28">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
+  <conditionalFormatting sqref="H23:H27 C25:C28 B9:B28 B2:C7 B28:C75 C9:C18">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(B8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Day</t>
   </si>
@@ -91,17 +91,42 @@
   </si>
   <si>
     <t xml:space="preserve">Modelled a 400 poly pew to be used as a semi-placeholder for the arena. </t>
+  </si>
+  <si>
+    <t>Implement new props in scene</t>
+  </si>
+  <si>
+    <t>Fiddle with lighting</t>
+  </si>
+  <si>
+    <t>Altar placeholder</t>
+  </si>
+  <si>
+    <t>Made rectangular model as a placeholder</t>
+  </si>
+  <si>
+    <t>Put new props. Had to scale them down to the player. Adjusted scale of the arena and props to match the current player height.</t>
+  </si>
+  <si>
+    <t>Changed skybox, added point light to candles. I tried to make the lighting nicer with some lightmaps but almost cooked my CPU while doing so. Decided to leave the heavier 3D workloads to my teammates with more competent workstations.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -406,65 +431,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -473,147 +502,106 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <strike val="0"/>
@@ -714,6 +702,30 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFDBE5F1"/>
           <bgColor rgb="FFDBE5F1"/>
         </patternFill>
@@ -762,14 +774,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Sheet1-style" pivot="0" count="4">
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
     <tableStyle name="Sheet1-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -790,13 +802,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E75" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E75" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
   <tableColumns count="5">
-    <tableColumn id="1" name="Day" dataDxfId="9"/>
-    <tableColumn id="2" name="Task name" dataDxfId="8"/>
-    <tableColumn id="3" name="What the task entails" dataDxfId="7"/>
-    <tableColumn id="4" name="1" dataDxfId="6"/>
-    <tableColumn id="5" name="Actual hours" dataDxfId="5"/>
+    <tableColumn id="1" name="Day" dataDxfId="4"/>
+    <tableColumn id="2" name="Task name" dataDxfId="3"/>
+    <tableColumn id="3" name="What the task entails" dataDxfId="2"/>
+    <tableColumn id="4" name="1" dataDxfId="1"/>
+    <tableColumn id="5" name="Actual hours" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1002,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1035,13 +1047,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="69" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13">
@@ -1052,13 +1064,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="73" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="14">
@@ -1069,13 +1081,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="76" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="14">
@@ -1086,13 +1098,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="75" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="14">
@@ -1103,50 +1115,50 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="77">
         <v>1</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="77">
         <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="77">
         <v>1</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="77">
         <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="77">
         <v>1</v>
       </c>
       <c r="E8" s="14">
@@ -1154,86 +1166,116 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="A10" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="24"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="27"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="27"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="14"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="G20" s="1"/>
@@ -1241,8 +1283,8 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="14"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="G21" s="1"/>
@@ -1250,395 +1292,395 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="14"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="27"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="35"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="35"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="35"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="35"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="35"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="39"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="39"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="40"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="39"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="39"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="40"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="39"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="39"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="39"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="46"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="51"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="51"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="49"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="51"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="51"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="51"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="51"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="49"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="55"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="49"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="55"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="49"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="55"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="49"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="55"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="55"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="53"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="16"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="55"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="60"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="16"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="55"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="61"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="61"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="61"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="61"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="61"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="61"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="62"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="62"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="62"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="62"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="62"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="62"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="62"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
+      <c r="A65" s="60"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="62"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="62"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="62"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="62"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="62"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="62"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="62"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="62"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="65"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="68"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
@@ -1648,11 +1690,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>7.77</v>
+        <v>8.9600000000000009</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
@@ -2611,17 +2653,17 @@
     <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="H23:H27 C25:C28 B9:B28 B2:C7 B28:C75 C9:C18">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Day</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>Changed skybox, added point light to candles. I tried to make the lighting nicer with some lightmaps but almost cooked my CPU while doing so. Decided to leave the heavier 3D workloads to my teammates with more competent workstations.</t>
+  </si>
+  <si>
+    <t>Tried making modular balcony set</t>
+  </si>
+  <si>
+    <t>Pulled up my reference board and tried to make a modular balcony set. Gave up after making several variations that didn't look good.</t>
+  </si>
+  <si>
+    <t>Made a modular wall piece</t>
+  </si>
+  <si>
+    <t>Pulled up my reference board and made a modular wall. Unpacked the UVs as well.</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -458,34 +470,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -494,52 +507,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -564,21 +569,21 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -587,10 +592,16 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1014,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1047,13 +1058,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13">
@@ -1064,13 +1075,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="70" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="14">
@@ -1081,13 +1092,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="73" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="14">
@@ -1098,13 +1109,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="72" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="14">
@@ -1115,50 +1126,50 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="74">
         <v>1</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="74">
         <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="74">
         <v>1</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="74">
         <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="74">
         <v>1</v>
       </c>
       <c r="E8" s="14">
@@ -1166,13 +1177,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="81" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="14">
@@ -1183,13 +1194,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="14">
@@ -1200,13 +1211,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="81" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="14">
@@ -1217,65 +1228,85 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="25"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="25"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="14"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="G20" s="1"/>
@@ -1283,8 +1314,8 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="14"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="G21" s="1"/>
@@ -1292,395 +1323,395 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="14"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="25"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="33"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="33"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="34"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="33"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="37"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="37"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="37"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="37"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="38"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="37"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="37"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="47"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="49"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="47"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="49"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="47"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="44"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="49"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="47"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="49"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="47"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="49"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="47"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="49"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="47"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="53"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="47"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="53"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="47"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="53"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="47"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="53"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="53"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="51"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="53"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="53"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="58"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="59"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="59"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="59"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="59"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="59"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="59"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="60"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="60"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="60"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="60"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="60"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="60"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="60"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="60"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="60"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="60"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="60"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="60"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="60"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="60"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="60"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="63"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="66"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
@@ -1690,11 +1721,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>9.1</v>
+        <v>11.1</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>8.9600000000000009</v>
+        <v>11.080000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Day</t>
   </si>
@@ -121,17 +121,42 @@
   </si>
   <si>
     <t>Pulled up my reference board and made a modular wall. Unpacked the UVs as well.</t>
+  </si>
+  <si>
+    <t>Skybox</t>
+  </si>
+  <si>
+    <t>23.08.2021</t>
+  </si>
+  <si>
+    <t>Found fonts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found fonts, put their ttf files in the font folder. Also made a txt file explaining their usages and how well they look when used for numbers or large blocks of text. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made a night skybox, decided to cut the moon since the player camera is unable to tilt to the degree where the moon would be visible. </t>
+  </si>
+  <si>
+    <t>Had a meeting where we discussed what we've done, and what we need to finish ASAP for tomorrow's feedback session.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -443,54 +468,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -499,112 +528,109 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1026,7 +1052,7 @@
   <dimension ref="A1:H1016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1058,13 +1084,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="64" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13">
@@ -1075,13 +1101,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="68" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="14">
@@ -1092,13 +1118,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="71" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="14">
@@ -1109,13 +1135,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="14">
@@ -1126,50 +1152,50 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="72">
         <v>1</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="72">
         <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="72">
         <v>1</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="72">
         <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="72">
         <v>1</v>
       </c>
       <c r="E8" s="14">
@@ -1177,13 +1203,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="79" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="14">
@@ -1194,13 +1220,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="79" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="14">
@@ -1211,13 +1237,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="79" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="14">
@@ -1228,13 +1254,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="81" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="14">
@@ -1245,13 +1271,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="81" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="14">
@@ -1262,51 +1288,81 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="19"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="A14" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="22"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="22"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="14"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="G20" s="1"/>
@@ -1314,8 +1370,8 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="14"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="G21" s="1"/>
@@ -1323,395 +1379,395 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="14"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="22"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="30"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="31"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="34"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="34"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="34"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="34"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="34"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="34"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="34"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="44"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="46"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="44"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="46"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="44"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="46"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="44"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="46"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="44"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="46"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="44"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="46"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="44"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="50"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="44"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="50"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="44"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="50"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="44"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="50"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="50"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="48"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="50"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="55"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="50"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="56"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="56"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="56"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="56"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="56"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="56"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="57"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="57"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="57"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="57"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="57"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="57"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="57"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="57"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="57"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="57"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
+      <c r="A68" s="55"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="57"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="57"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
+      <c r="A70" s="55"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="57"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
+      <c r="A71" s="55"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="57"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="57"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
+      <c r="A73" s="55"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="60"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="63"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
@@ -1721,11 +1777,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>11.1</v>
+        <v>13.2</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>11.080000000000002</v>
+        <v>12.920000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Day</t>
   </si>
@@ -139,6 +139,30 @@
   </si>
   <si>
     <t>Had a meeting where we discussed what we've done, and what we need to finish ASAP for tomorrow's feedback session.</t>
+  </si>
+  <si>
+    <t>Boss HP Bar</t>
+  </si>
+  <si>
+    <t>Player Health and Stamina Bar</t>
+  </si>
+  <si>
+    <t>Made boss HP bar and implemented it into the HUDManager in Unity.</t>
+  </si>
+  <si>
+    <t>Made player HP and stamina bar and implemented it into the HUDManager in Unity.</t>
+  </si>
+  <si>
+    <t>Started progress on altar model</t>
+  </si>
+  <si>
+    <t>Added more detail into the altar prop.</t>
+  </si>
+  <si>
+    <t>Started unwrapping the candlestick model. Realised there was an error within the mesh, so I had to fix it. Then I resumed unwrapping.</t>
+  </si>
+  <si>
+    <t>Unwrapped candlestick model</t>
   </si>
 </sst>
 </file>
@@ -468,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -495,23 +519,24 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -520,52 +545,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -590,21 +607,21 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -613,27 +630,35 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1084,13 +1109,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13">
@@ -1101,13 +1126,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="14">
@@ -1118,13 +1143,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="68" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="14">
@@ -1135,13 +1160,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="14">
@@ -1152,50 +1177,50 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="69">
         <v>1</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="69">
         <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="69">
         <v>1</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="69">
         <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="69">
         <v>1</v>
       </c>
       <c r="E8" s="14">
@@ -1203,13 +1228,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="76" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="14">
@@ -1220,13 +1245,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="76" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="14">
@@ -1237,13 +1262,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="76" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="14">
@@ -1254,13 +1279,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="78" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="14">
@@ -1271,13 +1296,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="78" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="14">
@@ -1288,13 +1313,13 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="81" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="14">
@@ -1305,13 +1330,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="81" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="14">
@@ -1322,13 +1347,13 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="81" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="14">
@@ -1339,39 +1364,79 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="20"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="A18" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="20"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.5</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="14"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="G21" s="1"/>
@@ -1379,395 +1444,395 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="14"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="28"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="28"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="28"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="28"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="28"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="32"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="32"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="32"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="32"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="32"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="32"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="32"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="42"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="44"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="42"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="44"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="42"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="44"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="42"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="44"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="42"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="44"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="42"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="44"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="42"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="48"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="42"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="48"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="42"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="48"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="42"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="48"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="48"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="46"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="48"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="53"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="48"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="54"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="54"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="54"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="54"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="54"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="54"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="55"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="55"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="55"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="55"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="55"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="55"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="55"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="55"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="55"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="55"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="55"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="55"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="55"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="55"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="55"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="58"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
+      <c r="A74" s="55"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="61"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
@@ -1777,11 +1842,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>13.2</v>
+        <v>16.2</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>12.920000000000002</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Day</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Altar placeholder</t>
   </si>
   <si>
-    <t>Made rectangular model as a placeholder</t>
-  </si>
-  <si>
     <t>Put new props. Had to scale them down to the player. Adjusted scale of the arena and props to match the current player height.</t>
   </si>
   <si>
@@ -163,17 +160,42 @@
   </si>
   <si>
     <t>Unwrapped candlestick model</t>
+  </si>
+  <si>
+    <t>Made rectangular model as a placeholder, implemented and adjusted scale in Unity scene.</t>
+  </si>
+  <si>
+    <t>Unwrapped pew model</t>
+  </si>
+  <si>
+    <t>24.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unwrapped the church pew model. </t>
+  </si>
+  <si>
+    <t>Unwrapped the altar model.</t>
+  </si>
+  <si>
+    <t>Unwrapped the altar model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -492,43 +514,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -537,128 +567,128 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1224,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="14">
-        <v>0.81</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1234,8 +1264,8 @@
       <c r="B9" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>27</v>
+      <c r="C9" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="14">
         <v>0.1</v>
@@ -1252,7 +1282,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="14">
         <v>0.5</v>
@@ -1269,7 +1299,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
@@ -1283,10 +1313,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="78" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
@@ -1300,10 +1330,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="78" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>33</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
@@ -1314,13 +1344,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="14">
         <v>1</v>
@@ -1331,13 +1361,13 @@
     </row>
     <row r="15" spans="1:5" ht="30">
       <c r="A15" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="C15" s="81" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>37</v>
       </c>
       <c r="D15" s="14">
         <v>0.1</v>
@@ -1348,13 +1378,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
@@ -1365,13 +1395,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="14">
         <v>0.5</v>
@@ -1382,13 +1412,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="14">
         <v>0.5</v>
@@ -1399,13 +1429,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="14">
         <v>1</v>
@@ -1416,38 +1446,58 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="83" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>45</v>
       </c>
       <c r="D20" s="14">
         <v>1</v>
       </c>
       <c r="E20" s="14">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="A22" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1.25</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
@@ -1842,11 +1892,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>16.2</v>
+        <v>17.7</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>16.22</v>
+        <v>17.919999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Day</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>Unwrapped the altar model</t>
+  </si>
+  <si>
+    <t>25.08.2021</t>
+  </si>
+  <si>
+    <t>Start screen implement</t>
+  </si>
+  <si>
+    <t>Copied Roger's current scene to make a 3D start screen. Searched for fonts (since they weren't really suitable). We also decided on the official name of the game, Gallant. Made a press A to start sprite that'll show in the bottom.</t>
+  </si>
+  <si>
+    <t>Adrenaline UI</t>
+  </si>
+  <si>
+    <t>Rearranged ingame UI</t>
   </si>
 </sst>
 </file>
@@ -514,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -541,16 +556,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -559,52 +575,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -629,21 +637,21 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -652,40 +660,45 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1106,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1139,13 +1152,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="56" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13">
@@ -1156,13 +1169,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="14">
@@ -1173,13 +1186,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="63" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="14">
@@ -1190,13 +1203,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="62" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="14">
@@ -1207,50 +1220,50 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="64">
         <v>1</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="64">
         <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="64">
         <v>1</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="64">
         <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="64">
         <v>1</v>
       </c>
       <c r="E8" s="14">
@@ -1258,13 +1271,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="81" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="14">
@@ -1275,13 +1288,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="71" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="14">
@@ -1292,13 +1305,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="71" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="14">
@@ -1309,13 +1322,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="73" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="14">
@@ -1326,13 +1339,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="73" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="14">
@@ -1343,13 +1356,13 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="76" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="14">
@@ -1360,13 +1373,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="76" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="14">
@@ -1377,13 +1390,13 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="76" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="14">
@@ -1394,13 +1407,13 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="78" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="14">
@@ -1411,13 +1424,13 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="79" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="14">
@@ -1428,13 +1441,13 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="78" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="14">
@@ -1445,13 +1458,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="78" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="14">
@@ -1464,13 +1477,13 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="84" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="14">
@@ -1483,13 +1496,13 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="84" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="14">
@@ -1501,388 +1514,414 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+    <row r="23" spans="1:8" ht="30">
+      <c r="A23" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.73</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.6</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.36</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="25"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="25"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="25"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="25"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="29"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="29"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="30"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="29"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="29"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="30"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="29"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="29"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="29"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="39"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="41"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="39"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="41"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="41"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="41"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="41"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="41"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="45"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="39"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="45"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="39"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="45"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="39"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="45"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="45"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="43"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="45"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="50"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="45"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="51"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="51"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="51"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="51"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="51"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="51"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="52"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="52"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="52"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="52"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="52"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="52"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="52"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="52"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="52"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="52"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="52"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="55"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
+      <c r="A74" s="50"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="58"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
@@ -1892,11 +1931,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>17.7</v>
+        <v>20.2</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>17.919999999999998</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Day</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>Rearranged ingame UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearranged resource bars to make the UI look visually pleasing. </t>
+  </si>
+  <si>
+    <t>Made adrenaline UI using a similar process for the other resource bars, where the background, fill, specular and border layers are separated. Implemented these pngs into the HUDManager.</t>
+  </si>
+  <si>
+    <t>Edited the UV map for the pew model.</t>
+  </si>
+  <si>
+    <t>Fixed UV map on pew model</t>
+  </si>
+  <si>
+    <t>Filled in individual journal and development journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote entries on the contributions I've done so far. Proofread and corrected contributions written by other teammates. </t>
   </si>
 </sst>
 </file>
@@ -529,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -556,9 +574,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -567,52 +587,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -637,21 +649,21 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -660,48 +672,55 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1152,13 +1171,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13">
@@ -1169,13 +1188,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="58" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="14">
@@ -1186,13 +1205,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="14">
@@ -1203,13 +1222,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="60" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="14">
@@ -1220,50 +1239,50 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="62">
         <v>1</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="62">
         <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="62">
         <v>1</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="62">
         <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="62">
         <v>1</v>
       </c>
       <c r="E8" s="14">
@@ -1271,13 +1290,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="79" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="14">
@@ -1288,13 +1307,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="69" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="14">
@@ -1305,13 +1324,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="69" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="14">
@@ -1322,13 +1341,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="71" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="14">
@@ -1339,13 +1358,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="71" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="14">
@@ -1356,13 +1375,13 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="74" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="14">
@@ -1373,13 +1392,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="74" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="14">
@@ -1390,13 +1409,13 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="74" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="14">
@@ -1407,13 +1426,13 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="76" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="14">
@@ -1424,13 +1443,13 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="14">
@@ -1441,13 +1460,13 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="76" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="14">
@@ -1458,13 +1477,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="76" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="14">
@@ -1477,32 +1496,32 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="82" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="14">
         <v>0.5</v>
       </c>
       <c r="E21" s="14">
-        <v>0.56000000000000005</v>
+        <v>0.82</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="82" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="14">
@@ -1515,13 +1534,13 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="30">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="85" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="14">
@@ -1533,395 +1552,419 @@
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="85" t="s">
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="86" t="s">
+        <v>59</v>
+      </c>
       <c r="D24" s="14">
         <v>1</v>
       </c>
       <c r="E24" s="14">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="87" t="s">
+        <v>58</v>
+      </c>
       <c r="D25" s="14">
         <v>0.5</v>
       </c>
       <c r="E25" s="14">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.1</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="A27" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1.5</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="24"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="24"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="24"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="24"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="24"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="34"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="36"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="34"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="36"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="34"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="36"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="34"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="36"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="36"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="34"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="36"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="34"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="40"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="34"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="40"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="34"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="40"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="34"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="40"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="40"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="38"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="40"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="45"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="40"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="46"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="46"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="46"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="46"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="46"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="46"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="47"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="47"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="47"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="47"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="47"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="47"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="47"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="47"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="47"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="47"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="47"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="50"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
+      <c r="A74" s="48"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="53"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
@@ -1931,11 +1974,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>20.2</v>
+        <v>21.31</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>19.61</v>
+        <v>21.92</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Day</t>
   </si>
@@ -211,17 +211,33 @@
   </si>
   <si>
     <t xml:space="preserve">Wrote entries on the contributions I've done so far. Proofread and corrected contributions written by other teammates. </t>
+  </si>
+  <si>
+    <t>Tweaked start screen</t>
+  </si>
+  <si>
+    <t>27.08.2021</t>
+  </si>
+  <si>
+    <t>Tweaked start screen title placement and size.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -547,185 +563,197 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -898,14 +926,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Sheet1-style" pivot="0" count="4">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
     <tableStyle name="Sheet1-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -926,13 +954,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E75" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E75" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
   <tableColumns count="5">
-    <tableColumn id="1" name="Day" dataDxfId="4"/>
-    <tableColumn id="2" name="Task name" dataDxfId="3"/>
-    <tableColumn id="3" name="What the task entails" dataDxfId="2"/>
-    <tableColumn id="4" name="1" dataDxfId="1"/>
-    <tableColumn id="5" name="Actual hours" dataDxfId="0"/>
+    <tableColumn id="1" name="Day" dataDxfId="5"/>
+    <tableColumn id="2" name="Task name" dataDxfId="4"/>
+    <tableColumn id="3" name="What the task entails" dataDxfId="3"/>
+    <tableColumn id="4" name="1" dataDxfId="2"/>
+    <tableColumn id="5" name="Actual hours" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1138,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1601,7 +1629,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="14">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E26" s="14">
         <v>0.1</v>
@@ -1629,11 +1657,21 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="18"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.1</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -1974,11 +2012,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>21.31</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>21.92</v>
+        <v>22.020000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
@@ -2936,18 +2974,18 @@
     <row r="1015" ht="15.75" customHeight="1"/>
     <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="H23:H27 C25:C28 B9:B28 B2:C7 B28:C75 C9:C18">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="3">
+  <conditionalFormatting sqref="H23:H27 C25:C28 B9:B28 B2:C7 C9:C18 B28:C75">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="2">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
       <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -219,7 +219,7 @@
     <t>27.08.2021</t>
   </si>
   <si>
-    <t>Tweaked start screen title placement and size.</t>
+    <t>Tweaked start screen title placement and size. Also updated 3D backdrop with Roger's new scene.</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1670,7 +1670,7 @@
         <v>0.1</v>
       </c>
       <c r="E28" s="14">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>22.020000000000003</v>
+        <v>22.090000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>Day</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Tweaked start screen title placement and size. Also updated 3D backdrop with Roger's new scene.</t>
+  </si>
+  <si>
+    <t>Custom Title</t>
+  </si>
+  <si>
+    <t>Made a custom title based off Fenrir Regular.</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,9 +601,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -741,6 +744,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1199,13 +1206,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13">
@@ -1216,13 +1223,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="14">
@@ -1233,13 +1240,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="14">
@@ -1250,13 +1257,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="14">
@@ -1267,50 +1274,50 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="61">
         <v>1</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="61">
         <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="61">
         <v>1</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="61">
         <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="61">
         <v>1</v>
       </c>
       <c r="E8" s="14">
@@ -1318,13 +1325,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="78" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="14">
@@ -1335,13 +1342,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="14">
@@ -1352,13 +1359,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="68" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="14">
@@ -1369,13 +1376,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="70" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="14">
@@ -1386,13 +1393,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="70" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="14">
@@ -1403,13 +1410,13 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="73" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="14">
@@ -1420,13 +1427,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="73" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="14">
@@ -1437,13 +1444,13 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="73" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="14">
@@ -1454,13 +1461,13 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="75" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="14">
@@ -1471,13 +1478,13 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="76" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="14">
@@ -1488,13 +1495,13 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="75" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="14">
@@ -1505,13 +1512,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="75" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="14">
@@ -1524,13 +1531,13 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="81" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="14">
@@ -1543,13 +1550,13 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="81" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="14">
@@ -1562,13 +1569,13 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="30">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="84" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="14">
@@ -1581,13 +1588,13 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="85" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="14">
@@ -1600,13 +1607,13 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="86" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="14">
@@ -1619,13 +1626,13 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="85" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="14">
@@ -1638,13 +1645,13 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="85" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="14">
@@ -1657,13 +1664,13 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="14">
@@ -1676,11 +1683,21 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="18"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="18"/>
@@ -1690,319 +1707,319 @@
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="22"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="22"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="22"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="22"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="22"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="22"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="34"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="32"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="34"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="34"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="34"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="34"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="32"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="34"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="32"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="38"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="32"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="38"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="32"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="38"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="32"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="38"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="38"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="38"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="43"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="38"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="44"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="44"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="44"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="44"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="44"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="44"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="45"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="45"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="45"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="45"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="45"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="45"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="45"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="45"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="45"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="45"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="45"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="45"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="45"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="48"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="51"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
@@ -2012,11 +2029,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>21.400000000000002</v>
+        <v>21.500000000000004</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>22.090000000000003</v>
+        <v>22.370000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Day</t>
   </si>
@@ -226,24 +226,23 @@
   </si>
   <si>
     <t>Made a custom title based off Fenrir Regular.</t>
+  </si>
+  <si>
+    <t>Custom Application Icon</t>
+  </si>
+  <si>
+    <t>Made from rotating the T from the custom title.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -569,38 +568,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -634,9 +628,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -644,28 +638,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -685,10 +679,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1206,13 +1200,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="13">
@@ -1223,13 +1217,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="54" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="14">
@@ -1240,13 +1234,13 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="57" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="14">
@@ -1257,13 +1251,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="14">
@@ -1274,50 +1268,50 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="58">
         <v>1</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="58">
         <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="58">
         <v>1</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="58">
         <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="58">
         <v>1</v>
       </c>
       <c r="E8" s="14">
@@ -1325,13 +1319,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="75" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="14">
@@ -1342,13 +1336,13 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="65" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="14">
@@ -1359,13 +1353,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="65" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="14">
@@ -1376,13 +1370,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="67" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="14">
@@ -1393,13 +1387,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="67" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="14">
@@ -1410,13 +1404,13 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="70" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="14">
@@ -1427,13 +1421,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="70" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="14">
@@ -1444,13 +1438,13 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="70" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="14">
@@ -1461,13 +1455,13 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="72" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="14">
@@ -1478,13 +1472,13 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="73" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="14">
@@ -1495,13 +1489,13 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="72" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="14">
@@ -1512,13 +1506,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="72" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="14">
@@ -1531,13 +1525,13 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="78" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="14">
@@ -1550,13 +1544,13 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="78" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="14">
@@ -1569,13 +1563,13 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="30">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="81" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="14">
@@ -1588,13 +1582,13 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="82" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="14">
@@ -1607,13 +1601,13 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="83" t="s">
         <v>58</v>
       </c>
       <c r="D25" s="14">
@@ -1626,13 +1620,13 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="82" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="14">
@@ -1645,13 +1639,13 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="82" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="14">
@@ -1664,13 +1658,13 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="85" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="14">
@@ -1683,13 +1677,13 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="88" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="14">
@@ -1700,326 +1694,336 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="18"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="21"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="21"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="21"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="21"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="22"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="21"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="31"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="33"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="33"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="33"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="31"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="33"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="31"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="33"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="31"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="33"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="31"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="37"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="31"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="37"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="31"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="37"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="37"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="37"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="35"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="37"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="42"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="37"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="43"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="43"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="43"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="43"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="43"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="43"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="44"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="44"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="44"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="44"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="44"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="44"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="44"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="44"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="44"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="44"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="44"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="44"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="44"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="44"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="44"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="47"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="50"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
@@ -2029,11 +2033,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>21.500000000000004</v>
+        <v>21.600000000000005</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>22.370000000000005</v>
+        <v>22.430000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">

--- a/PSDs/Fetus/TaskList_FionaCheung.xlsx
+++ b/PSDs/Fetus/TaskList_FionaCheung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Day</t>
   </si>
@@ -232,17 +232,30 @@
   </si>
   <si>
     <t>Made from rotating the T from the custom title.</t>
+  </si>
+  <si>
+    <t>Finalized Start Screen</t>
+  </si>
+  <si>
+    <t>Tweaked Michael's final start screen. Replaced vignette with a gradient at the top to make the white title pop out more. Fixed his camera position so that the scene looks better.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -568,193 +581,189 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <strike val="0"/>
@@ -927,14 +936,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Sheet1-style" pivot="0" count="4">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
     <tableStyle name="Sheet1-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -955,13 +964,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E75" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E75" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
   <tableColumns count="5">
-    <tableColumn id="1" name="Day" dataDxfId="5"/>
-    <tableColumn id="2" name="Task name" dataDxfId="4"/>
-    <tableColumn id="3" name="What the task entails" dataDxfId="3"/>
-    <tableColumn id="4" name="1" dataDxfId="2"/>
-    <tableColumn id="5" name="Actual hours" dataDxfId="1"/>
+    <tableColumn id="1" name="Day" dataDxfId="4"/>
+    <tableColumn id="2" name="Task name" dataDxfId="3"/>
+    <tableColumn id="3" name="What the task entails" dataDxfId="2"/>
+    <tableColumn id="4" name="1" dataDxfId="1"/>
+    <tableColumn id="5" name="Actual hours" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1168,7 +1177,7 @@
   <dimension ref="A1:H1016"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1710,12 +1719,20 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="30">
       <c r="A31" s="18"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="B31" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="18"/>
@@ -2033,11 +2050,11 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <f>SUM(Sheet1!$D$2:$D$75)</f>
-        <v>21.600000000000005</v>
+        <v>21.700000000000006</v>
       </c>
       <c r="E76" s="10">
         <f>SUM(Sheet1!$E$2:$E$75)</f>
-        <v>22.430000000000003</v>
+        <v>22.620000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
@@ -2996,17 +3013,17 @@
     <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="H23:H27 C25:C28 B9:B28 B2:C7 C9:C18 B28:C75">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
